--- a/StructureDefinition-profile-RequestOrchestration-for-RequestGroup.xlsx
+++ b/StructureDefinition-profile-RequestOrchestration-for-RequestGroup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="476">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7795924-06:00</t>
+    <t>2026-02-09T22:05:43.3001603-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,33 +419,57 @@
     <t>RequestGroup.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>RequestGroup.extension:goal</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.goal from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Goal in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.goal` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RequestOrchestration.goal` is will have a context of RequestGroup based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>RequestGroup.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -453,6 +477,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -833,10 +860,181 @@
     <t>RequestGroup.action.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The linkId of the action from the PlanDefinition that corresponds to this action in the RequestOrchestration resource.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.linkId` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+Element `RequestOrchestration.action.linkId` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:input</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.input|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.input from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines input data requirements for the action.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.input` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+Element `RequestOrchestration.action.input` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:output</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.output|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.output from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the outputs of the action, if any.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.output` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+Element `RequestOrchestration.action.output` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.location|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.location from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the facility where the action will occur; e.g. home, hospital, specific clinic, etc.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.location` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+Element `RequestOrchestration.action.location` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:definition</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.definition|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.definition[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A reference to an ActivityDefinition that describes the action to be taken in detail, a PlanDefinition that describes a series of actions to be taken, a Questionnaire that should be filled out, a SpecimenDefinition describing a specimen to be collected, or an ObservationDefinition that specifies what observation should be captured.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.definition[x]` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+Element `RequestOrchestration.action.definition[x]` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:definitionCanonical</t>
+  </si>
+  <si>
+    <t>definitionCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ActivityDefinition,http://hl7.org/fhir/StructureDefinition/ObservationDefinition,http://hl7.org/fhir/StructureDefinition/PlanDefinition,http://hl7.org/fhir/StructureDefinition/Questionnaire,http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:definitionReference</t>
+  </si>
+  <si>
+    <t>definitionReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ActivityDefinition,http://hl7.org/fhir/StructureDefinition/ObservationDefinition,http://hl7.org/fhir/StructureDefinition/PlanDefinition,http://hl7.org/fhir/StructureDefinition/Questionnaire,http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:dynamicValue</t>
+  </si>
+  <si>
+    <t>dynamicValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.dynamicValue|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.dynamicValue from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Customizations that should be applied to the statically defined resource. For example, if the dosage of a medication must be computed based on the patient's weight, a customization would be used to specify an expression that calculated the weight, and the path on the resource that would contain the result.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.dynamicValue` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+Element `RequestOrchestration.action.dynamicValue` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:transform</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.transform from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/StructureMap in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.transform` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.transform` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `RequestOrchestration.action.transform` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:goal</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.goal from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.goal` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.goal` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RequestOrchestration.action.goal` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>RequestGroup.action.modifierExtension</t>
@@ -941,6 +1139,12 @@
     <t>RequestGroup.action.condition.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>RequestGroup.action.condition.modifierExtension</t>
   </si>
   <si>
@@ -993,6 +1197,25 @@
     <t>RequestGroup.action.relatedAction.extension</t>
   </si>
   <si>
+    <t>RequestGroup.action.relatedAction.extension:endRelationship</t>
+  </si>
+  <si>
+    <t>endRelationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.relatedAction.endRelationship|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.relatedAction.endRelationship from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The relationship of the end of this action to the related action.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.relatedAction.endRelationship` is will have a context of RequestGroup.action.relatedAction based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
     <t>RequestGroup.action.relatedAction.modifierExtension</t>
   </si>
   <si>
@@ -1074,20 +1297,13 @@
     <t>RequestGroup.action.participant.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
+    <t>RequestGroup.action.participant.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.participant|0.0.1-snapshot-3}
@@ -1097,7 +1313,8 @@
     <t>Cross-version extension for RequestOrchestration.action.participant from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Because request orchestrations represent potential options for performing activities, some specific participants may still be unknown, so this element allows for both definitional participants (in the same way they are specified in ActivityDefinition and PlanDefinition resources) as well as identifying specific participants when they are known.</t>
+    <t>Element `RequestOrchestration.action.participant` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+Element `RequestOrchestration.action.participant` is mapped to FHIR R4 element `RequestGroup.action.participant`.</t>
   </si>
   <si>
     <t>RequestGroup.action.participant.reference</t>
@@ -1599,7 +1816,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1608,9 +1825,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.5234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.84375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1618,7 +1835,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.44921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2549,7 +2766,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2568,17 +2785,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2615,16 +2830,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2648,7 +2861,7 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -2656,11 +2869,13 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2673,26 +2888,24 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2740,7 +2953,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2761,19 +2974,19 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2786,23 +2999,25 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2851,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2863,24 +3078,24 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2903,16 +3118,18 @@
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2960,7 +3177,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2975,10 +3192,10 @@
         <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2986,10 +3203,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3012,13 +3229,13 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3069,7 +3286,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3084,7 +3301,7 @@
         <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -3095,14 +3312,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3118,21 +3335,19 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3180,7 +3395,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3195,7 +3410,7 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3206,14 +3421,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3232,19 +3447,17 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3293,7 +3506,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3308,7 +3521,7 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3319,21 +3532,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3342,22 +3555,22 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3406,13 +3619,13 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
@@ -3421,7 +3634,7 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3432,18 +3645,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3452,22 +3665,26 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3491,13 +3708,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3515,10 +3732,10 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3530,10 +3747,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3548,7 +3765,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3570,15 +3787,13 @@
         <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3602,13 +3817,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3641,10 +3856,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3652,18 +3867,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3672,7 +3887,7 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
@@ -3687,13 +3902,13 @@
         <v>199</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q19" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3713,7 +3928,7 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>201</v>
@@ -3737,10 +3952,10 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3789,22 +4004,22 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3824,13 +4039,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3863,10 +4078,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3874,10 +4089,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3897,18 +4112,20 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3957,7 +4174,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3972,10 +4189,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3983,10 +4200,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4009,13 +4226,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4066,7 +4283,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4081,10 +4298,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4092,10 +4309,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4118,13 +4335,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4175,7 +4392,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4190,10 +4407,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4201,10 +4418,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4227,13 +4444,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4284,7 +4501,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4299,10 +4516,10 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4310,10 +4527,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4324,7 +4541,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4336,13 +4553,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4393,13 +4610,13 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
@@ -4408,10 +4625,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4419,10 +4636,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4445,13 +4662,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4502,7 +4719,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4517,10 +4734,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4528,10 +4745,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4554,13 +4771,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4611,7 +4828,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4626,10 +4843,10 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4637,10 +4854,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4663,13 +4880,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4720,7 +4937,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4732,10 +4949,10 @@
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4746,10 +4963,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4760,7 +4977,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4772,13 +4989,13 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4829,19 +5046,19 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4850,26 +5067,26 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4881,17 +5098,15 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4940,19 +5155,19 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4961,19 +5176,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4986,26 +5201,22 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5041,19 +5252,17 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5074,17 +5283,19 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5105,15 +5316,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5162,19 +5375,19 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
@@ -5188,12 +5401,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5202,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5214,15 +5429,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5271,19 +5488,19 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
@@ -5297,12 +5514,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5311,7 +5530,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5320,18 +5539,20 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5380,19 +5601,19 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5406,12 +5627,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5429,18 +5652,20 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5489,19 +5714,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5515,12 +5740,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5541,15 +5768,17 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>198</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5574,13 +5803,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5598,22 +5827,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5624,12 +5853,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5638,7 +5869,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5650,15 +5881,17 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5707,7 +5940,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5716,13 +5949,13 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5733,12 +5966,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5747,7 +5982,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5759,15 +5994,17 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5816,7 +6053,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5825,13 +6062,13 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5842,12 +6079,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5868,16 +6107,16 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5927,7 +6166,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5936,10 +6175,10 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5953,12 +6192,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5979,15 +6220,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6036,19 +6279,19 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6057,19 +6300,21 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D41" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6088,16 +6333,16 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6147,7 +6392,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6168,19 +6413,19 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6199,19 +6444,19 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6260,7 +6505,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6286,10 +6531,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6297,7 +6542,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
@@ -6312,17 +6557,15 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6347,13 +6590,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6371,10 +6614,10 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>86</v>
@@ -6397,10 +6640,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6423,17 +6666,15 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6482,7 +6723,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6508,10 +6749,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6522,7 +6763,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6531,16 +6772,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6591,13 +6832,13 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
@@ -6617,10 +6858,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6640,16 +6881,16 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6700,7 +6941,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6712,7 +6953,7 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -6721,26 +6962,26 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6752,17 +6993,15 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6787,13 +7026,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6811,40 +7050,40 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6857,26 +7096,22 @@
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6924,7 +7159,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6936,24 +7171,24 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6961,10 +7196,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6976,13 +7211,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7033,13 +7268,13 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
@@ -7048,7 +7283,7 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7059,10 +7294,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7070,10 +7305,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7085,15 +7320,17 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7118,13 +7355,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7142,13 +7379,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7168,10 +7405,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7194,13 +7431,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7251,7 +7488,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7263,7 +7500,7 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -7272,26 +7509,26 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7303,15 +7540,17 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7360,40 +7599,40 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7406,22 +7645,26 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7469,7 +7712,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7481,24 +7724,24 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7506,7 +7749,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
@@ -7521,15 +7764,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7554,13 +7799,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7578,10 +7823,10 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>259</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>86</v>
@@ -7590,7 +7835,7 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -7599,15 +7844,15 @@
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7615,11 +7860,11 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7630,15 +7875,17 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7675,31 +7922,31 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -7713,10 +7960,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7739,17 +7986,15 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>345</v>
+        <v>259</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7798,7 +8043,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7810,7 +8055,7 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -7824,10 +8069,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7847,20 +8092,18 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7909,7 +8152,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7918,10 +8161,10 @@
         <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -7930,15 +8173,15 @@
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7949,7 +8192,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -7958,20 +8201,18 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -7996,43 +8237,41 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
@@ -8041,17 +8280,19 @@
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8069,19 +8310,19 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>144</v>
+        <v>377</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8131,19 +8372,19 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
@@ -8152,49 +8393,51 @@
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8242,19 +8485,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8268,10 +8511,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8279,7 +8522,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
@@ -8294,13 +8537,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8327,13 +8570,13 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
@@ -8351,10 +8594,10 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>86</v>
@@ -8377,10 +8620,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8388,7 +8631,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8406,10 +8649,10 @@
         <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8436,13 +8679,13 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
@@ -8460,10 +8703,10 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>86</v>
@@ -8486,10 +8729,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8512,13 +8755,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>106</v>
+        <v>391</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8545,13 +8788,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -8569,7 +8812,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8595,10 +8838,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8621,13 +8864,13 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>395</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8654,13 +8897,13 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -8678,7 +8921,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8693,7 +8936,7 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8704,10 +8947,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8718,7 +8961,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8730,13 +8973,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>106</v>
+        <v>400</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8763,13 +9006,13 @@
         <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>76</v>
@@ -8787,13 +9030,13 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
@@ -8802,10 +9045,10 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -8813,10 +9056,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8839,13 +9082,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>399</v>
+        <v>265</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>400</v>
+        <v>266</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8872,13 +9115,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -8896,7 +9139,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>398</v>
+        <v>267</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -8908,7 +9151,7 @@
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -8917,15 +9160,15 @@
         <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8936,7 +9179,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -8948,17 +9191,15 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -8995,31 +9236,31 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9036,9 +9277,11 @@
         <v>408</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9059,15 +9302,17 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9116,7 +9361,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9125,18 +9370,1336 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AK69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-RequestOrchestration-for-RequestGroup.xlsx
+++ b/StructureDefinition-profile-RequestOrchestration-for-RequestGroup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="392">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3001603-06:00</t>
+    <t>2026-02-17T14:42:26.8889677-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,7 +460,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.goal` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `RequestOrchestration.goal` is will have a context of RequestGroup based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.goal` has a context of RequestGroup based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>RequestGroup.modifierExtension</t>
@@ -863,180 +863,26 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>RequestGroup.action.extension:linkId</t>
-  </si>
-  <si>
-    <t>linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.linkId|0.0.1-snapshot-3}
+    <t>RequestGroup.action.extension:action</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for RequestOrchestration.action.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The linkId of the action from the PlanDefinition that corresponds to this action in the RequestOrchestration resource.</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.linkId` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.linkId` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Cross-version extension for RequestOrchestration.action from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action` has is mapped to FHIR R4 element `RequestGroup.action`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>RequestGroup.action.extension:input</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.input|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action.input from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Defines input data requirements for the action.</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.input` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.input` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension:output</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.output|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action.output from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Defines the outputs of the action, if any.</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.output` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.output` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension:location</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.location|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action.location from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Identifies the facility where the action will occur; e.g. home, hospital, specific clinic, etc.</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.location` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.location` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension:definition</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.definition|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action.definition[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A reference to an ActivityDefinition that describes the action to be taken in detail, a PlanDefinition that describes a series of actions to be taken, a Questionnaire that should be filled out, a SpecimenDefinition describing a specimen to be collected, or an ObservationDefinition that specifies what observation should be captured.</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.definition[x]` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.definition[x]` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension:definitionCanonical</t>
-  </si>
-  <si>
-    <t>definitionCanonical</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ActivityDefinition,http://hl7.org/fhir/StructureDefinition/ObservationDefinition,http://hl7.org/fhir/StructureDefinition/PlanDefinition,http://hl7.org/fhir/StructureDefinition/Questionnaire,http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension:definitionReference</t>
-  </si>
-  <si>
-    <t>definitionReference</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ActivityDefinition,http://hl7.org/fhir/StructureDefinition/ObservationDefinition,http://hl7.org/fhir/StructureDefinition/PlanDefinition,http://hl7.org/fhir/StructureDefinition/Questionnaire,http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension:dynamicValue</t>
-  </si>
-  <si>
-    <t>dynamicValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.dynamicValue|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action.dynamicValue from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Customizations that should be applied to the statically defined resource. For example, if the dosage of a medication must be computed based on the patient's weight, a customization would be used to specify an expression that calculated the weight, and the path on the resource that would contain the result.</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.dynamicValue` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.dynamicValue` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension:transform</t>
-  </si>
-  <si>
-    <t>transform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action.transform from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/StructureMap in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.transform` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.transform` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `RequestOrchestration.action.transform` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension:goal</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action.goal from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.goal` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.goal` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `RequestOrchestration.action.goal` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
-  </si>
-  <si>
     <t>RequestGroup.action.modifierExtension</t>
   </si>
   <si>
@@ -1197,25 +1043,6 @@
     <t>RequestGroup.action.relatedAction.extension</t>
   </si>
   <si>
-    <t>RequestGroup.action.relatedAction.extension:endRelationship</t>
-  </si>
-  <si>
-    <t>endRelationship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.relatedAction.endRelationship|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action.relatedAction.endRelationship from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The relationship of the end of this action to the related action.</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.relatedAction.endRelationship` is will have a context of RequestGroup.action.relatedAction based on following the parent source element upwards and mapping to `RequestGroup`.</t>
-  </si>
-  <si>
     <t>RequestGroup.action.relatedAction.modifierExtension</t>
   </si>
   <si>
@@ -1291,119 +1118,16 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>RequestGroup.action.participant.id</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.participant.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.participant.extension:participant</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.participant|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action.participant from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action.participant` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.participant` is mapped to FHIR R4 element `RequestGroup.action.participant`.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.participant.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.participant.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+    <t>RequestGroup.action.type</t>
+  </si>
+  <si>
+    <t>create | update | remove | fire-event</t>
+  </si>
+  <si>
+    <t>The type of action to perform (create, update, remove).</t>
   </si>
   <si>
     <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.participant.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.participant.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.type</t>
-  </si>
-  <si>
-    <t>create | update | remove | fire-event</t>
-  </si>
-  <si>
-    <t>The type of action to perform (create, update, remove).</t>
   </si>
   <si>
     <t>The type of action to be performed.</t>
@@ -1816,7 +1540,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AM63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1825,9 +1549,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.5234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1835,7 +1559,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="116.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1853,7 +1577,7 @@
     <col min="26" max="26" width="50.7265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="39.44921875" customWidth="true" bestFit="true" hidden="true"/>
@@ -5304,7 +5028,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5322,10 +5046,10 @@
         <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5384,7 +5108,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>137</v>
@@ -5401,16 +5125,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5423,24 +5145,26 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5488,7 +5212,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5497,7 +5221,7 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>137</v>
@@ -5509,19 +5233,17 @@
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5530,7 +5252,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5542,17 +5264,15 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5601,19 +5321,19 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5627,14 +5347,12 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5655,17 +5373,15 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5714,19 +5430,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5740,14 +5456,12 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5765,20 +5479,18 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5827,19 +5539,19 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5853,14 +5565,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5878,20 +5588,18 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5940,19 +5648,19 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5966,14 +5674,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5994,17 +5700,15 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6029,13 +5733,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -6053,22 +5757,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6079,14 +5783,12 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6107,17 +5809,15 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6166,7 +5866,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6175,13 +5875,13 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6192,14 +5892,12 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6208,7 +5906,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6220,17 +5918,15 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6279,7 +5975,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6291,10 +5987,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6305,14 +6001,12 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6333,16 +6027,16 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6392,7 +6086,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6404,7 +6098,7 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6418,46 +6112,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6505,19 +6195,19 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
@@ -6526,26 +6216,26 @@
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6557,15 +6247,17 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6614,19 +6306,19 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>328</v>
+        <v>270</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6635,47 +6327,51 @@
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6723,19 +6419,19 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6744,15 +6440,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6760,7 +6456,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>86</v>
@@ -6772,18 +6468,20 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6808,13 +6506,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6832,10 +6530,10 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>86</v>
@@ -6858,10 +6556,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6881,18 +6579,20 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6941,7 +6641,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6967,10 +6667,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6981,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6993,13 +6693,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7026,13 +6726,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -7050,13 +6750,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -7065,7 +6765,7 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7076,10 +6776,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7090,7 +6790,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7102,13 +6802,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7159,40 +6859,40 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7211,15 +6911,17 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7268,7 +6970,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7280,28 +6982,28 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7314,24 +7016,26 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
+        <v>280</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7379,7 +7083,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7391,7 +7095,7 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
@@ -7400,15 +7104,15 @@
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7416,7 +7120,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>86</v>
@@ -7431,13 +7135,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7488,10 +7192,10 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>86</v>
@@ -7500,7 +7204,7 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -7509,26 +7213,26 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7540,17 +7244,15 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7575,13 +7277,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7599,19 +7301,19 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7620,51 +7322,47 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7712,19 +7410,19 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -7733,15 +7431,15 @@
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7749,7 +7447,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
@@ -7764,17 +7462,15 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7799,13 +7495,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7823,10 +7519,10 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>86</v>
@@ -7838,7 +7534,7 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7849,10 +7545,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7863,7 +7559,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7875,17 +7571,15 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7934,13 +7628,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7949,10 +7643,10 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7960,10 +7654,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7974,7 +7668,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7986,13 +7680,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8019,13 +7713,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -8043,13 +7737,13 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
@@ -8069,10 +7763,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8095,13 +7789,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>266</v>
+        <v>361</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8128,13 +7822,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8152,7 +7846,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8164,7 +7858,7 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -8173,15 +7867,15 @@
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8192,7 +7886,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8204,13 +7898,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8237,41 +7931,43 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
@@ -8285,14 +7981,12 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8313,17 +8007,15 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8348,13 +8040,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8372,19 +8064,19 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
@@ -8398,46 +8090,42 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8461,13 +8149,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8485,19 +8173,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8506,15 +8194,15 @@
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8522,7 +8210,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
@@ -8537,13 +8225,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8570,13 +8258,13 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
@@ -8594,10 +8282,10 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>86</v>
@@ -8620,10 +8308,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8631,7 +8319,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8646,15 +8334,17 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -8679,13 +8369,13 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
@@ -8703,16 +8393,16 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>98</v>
@@ -8729,10 +8419,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8743,7 +8433,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8755,13 +8445,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8812,16 +8502,16 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>98</v>
@@ -8833,1873 +8523,6 @@
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM80" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-RequestOrchestration-for-RequestGroup.xlsx
+++ b/StructureDefinition-profile-RequestOrchestration-for-RequestGroup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8889677-06:00</t>
+    <t>2026-02-20T11:59:20.9307349-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RequestGroup|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/RequestGroup</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>goal</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -720,6 +720,130 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>RequestGroup.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>RequestGroup.subject.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>RequestGroup.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RequestOrchestration.subject` has is mapped to FHIR R4 element `RequestGroup.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>RequestGroup.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>RequestGroup.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>RequestGroup.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>RequestGroup.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>RequestGroup.encounter</t>
   </si>
   <si>
@@ -841,35 +965,16 @@
     <t>RequestGroup.action.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>RequestGroup.action.extension</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>RequestGroup.action.extension:action</t>
   </si>
   <si>
     <t>action</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action}
 </t>
   </si>
   <si>
@@ -1125,9 +1230,6 @@
   </si>
   <si>
     <t>The type of action to perform (create, update, remove).</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The type of action to be performed.</t>
@@ -1540,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM63"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1559,7 +1661,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1577,7 +1679,7 @@
     <col min="26" max="26" width="50.7265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="39.44921875" customWidth="true" bestFit="true" hidden="true"/>
@@ -4116,7 +4218,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4128,16 +4230,16 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -4156,7 +4258,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4168,13 +4270,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4213,37 +4315,37 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4251,12 +4353,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4277,15 +4381,17 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4334,25 +4440,25 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4360,10 +4466,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4374,7 +4480,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4383,18 +4489,20 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4449,30 +4557,30 @@
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4483,7 +4591,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4492,18 +4600,20 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4528,13 +4638,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4552,13 +4662,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4567,21 +4677,21 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4592,7 +4702,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4601,10 +4711,10 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>255</v>
@@ -4612,7 +4722,9 @@
       <c r="M28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4661,13 +4773,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4676,21 +4788,21 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4701,7 +4813,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4710,18 +4822,20 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4770,19 +4884,19 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4791,15 +4905,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4822,13 +4936,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4879,7 +4993,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4891,24 +5005,24 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4919,7 +5033,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4931,13 +5045,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4976,35 +5090,37 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5012,14 +5128,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5028,7 +5142,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5040,17 +5154,15 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5099,25 +5211,25 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5125,14 +5237,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5145,26 +5257,22 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5212,7 +5320,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5224,24 +5332,24 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5252,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5264,13 +5372,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5321,13 +5429,13 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5336,10 +5444,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5347,10 +5455,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5361,7 +5469,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5373,13 +5481,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5430,13 +5538,13 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
@@ -5445,7 +5553,7 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5456,10 +5564,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5470,7 +5578,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5479,16 +5587,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5539,19 +5647,19 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5565,10 +5673,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5588,16 +5696,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5648,7 +5756,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5660,7 +5768,7 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5669,15 +5777,15 @@
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5688,7 +5796,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5700,13 +5808,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5733,46 +5841,44 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5783,12 +5889,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5809,15 +5917,17 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5866,7 +5976,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5875,13 +5985,13 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5892,14 +6002,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5912,22 +6022,26 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5975,7 +6089,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5987,24 +6101,24 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6015,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6027,17 +6141,15 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6086,13 +6198,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6112,10 +6224,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6138,13 +6250,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6195,7 +6307,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6207,7 +6319,7 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
@@ -6216,26 +6328,26 @@
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6244,20 +6356,18 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6306,19 +6416,19 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6327,51 +6437,47 @@
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6419,19 +6525,19 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6440,15 +6546,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6456,7 +6562,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>86</v>
@@ -6474,14 +6580,12 @@
         <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6509,10 +6613,10 @@
         <v>191</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6530,10 +6634,10 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>86</v>
@@ -6545,7 +6649,7 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6556,10 +6660,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6570,7 +6674,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6582,17 +6686,15 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6641,13 +6743,13 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
@@ -6656,7 +6758,7 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6667,10 +6769,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6693,13 +6795,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6750,7 +6852,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6765,7 +6867,7 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6776,10 +6878,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6790,7 +6892,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6802,15 +6904,17 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6859,19 +6963,19 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -6880,26 +6984,26 @@
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6911,17 +7015,15 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6970,19 +7072,19 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -6991,19 +7093,19 @@
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7016,26 +7118,24 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="O50" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7083,7 +7183,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7104,47 +7204,51 @@
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7192,19 +7296,19 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -7213,15 +7317,15 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7247,12 +7351,14 @@
         <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7280,10 +7386,10 @@
         <v>191</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7301,7 +7407,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>86</v>
@@ -7327,10 +7433,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7353,15 +7459,17 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7410,7 +7518,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7436,10 +7544,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7450,7 +7558,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7462,13 +7570,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7519,13 +7627,13 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
@@ -7534,7 +7642,7 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7545,10 +7653,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7559,7 +7667,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7571,13 +7679,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7628,47 +7736,47 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>347</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7680,15 +7788,17 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7713,13 +7823,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -7737,19 +7847,19 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -7758,47 +7868,51 @@
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -7822,13 +7936,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -7846,19 +7960,19 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -7867,15 +7981,15 @@
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7883,7 +7997,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>86</v>
@@ -7898,13 +8012,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7931,13 +8045,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -7955,10 +8069,10 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>86</v>
@@ -7981,10 +8095,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7992,7 +8106,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>86</v>
@@ -8010,10 +8124,10 @@
         <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8043,10 +8157,10 @@
         <v>191</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8064,10 +8178,10 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>86</v>
@@ -8090,10 +8204,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8116,13 +8230,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>106</v>
+        <v>372</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8149,13 +8263,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8173,7 +8287,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8199,10 +8313,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8225,13 +8339,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>376</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8258,13 +8372,13 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
@@ -8282,7 +8396,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8297,7 +8411,7 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8308,10 +8422,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8322,7 +8436,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8334,17 +8448,15 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>169</v>
+        <v>381</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -8393,25 +8505,25 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8419,10 +8531,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8433,7 +8545,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8445,13 +8557,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8478,13 +8590,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -8502,16 +8614,16 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>98</v>
@@ -8523,6 +8635,771 @@
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-RequestOrchestration-for-RequestGroup.xlsx
+++ b/StructureDefinition-profile-RequestOrchestration-for-RequestGroup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9307349-06:00</t>
+    <t>2026-02-21T13:36:54.3361127-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RequestGroup</t>
+    <t>http://hl7.org/fhir/StructureDefinition/RequestGroup|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -419,10 +419,420 @@
     <t>RequestGroup.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>RequestGroup.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>RequestGroup.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>Allows a service to provide a unique, business identifier for the request.</t>
+  </si>
+  <si>
+    <t>Allows identification of the request as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>RequestGroup.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>A canonical URL referencing a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>RequestGroup.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>A URL referencing an externally defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>RequestGroup.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal, or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this request.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the request and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>RequestGroup.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t>Request(s) replaced by this request</t>
+  </si>
+  <si>
+    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>RequestGroup.groupIdentifier</t>
+  </si>
+  <si>
+    <t>grouperid
+requisition</t>
+  </si>
+  <si>
+    <t>Composite request this is part of</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition, prescription or similar form.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition.  Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "prescription" or "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>RequestGroup.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The current state of the request. For request groups, the status reflects the status of all the requests in the group.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes identifying the lifecycle stage of a request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>RequestGroup.intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category
+</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>RequestGroup.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the request should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this request should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>RequestGroup.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>What's being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies what the overall request group is.</t>
+  </si>
+  <si>
+    <t>This element can be used to provide a code that captures the meaning of the request group as a whole, as opposed to the code of the action element, which captures the meaning of the individual actions within the request group.</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>RequestGroup.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who the request group is about</t>
+  </si>
+  <si>
+    <t>The subject for which the request group was created.</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>RequestGroup.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Created as part of</t>
+  </si>
+  <si>
+    <t>Describes the context of the request group, if any.</t>
+  </si>
+  <si>
+    <t>Request.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>RequestGroup.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the request group was authored</t>
+  </si>
+  <si>
+    <t>Indicates when the request group was created.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>RequestGroup.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Device or practitioner that authored the request group</t>
+  </si>
+  <si>
+    <t>Provides a reference to the author of the request group.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>RequestGroup.reasonCode</t>
+  </si>
+  <si>
+    <t>Why the request group is needed</t>
+  </si>
+  <si>
+    <t>Describes the reason for the request group in coded or textual form.</t>
+  </si>
+  <si>
+    <t>Request.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>RequestGroup.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Indicates another resource whose existence justifies this request group.</t>
+  </si>
+  <si>
+    <t>Request.reasonReference</t>
+  </si>
+  <si>
+    <t>RequestGroup.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional notes about the response</t>
+  </si>
+  <si>
+    <t>Provides a mechanism to communicate additional information about the response.</t>
+  </si>
+  <si>
+    <t>Request.note</t>
+  </si>
+  <si>
+    <t>RequestGroup.action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Proposed actions, if any</t>
+  </si>
+  <si>
+    <t>The actions, if any, produced by the evaluation of the artifact.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rqg-1:Must have resource or action but not both {resource.exists() != action.exists()}</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -436,335 +846,422 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension:goal</t>
-  </si>
-  <si>
-    <t>goal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.linkId|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for RequestOrchestration.goal from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Goal in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.goal` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `RequestOrchestration.goal` has a context of RequestGroup based on following the parent source element upwards and mapping to `RequestGroup`.</t>
-  </si>
-  <si>
-    <t>RequestGroup.modifierExtension</t>
+    <t>Cross-version extension for RequestOrchestration.action.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The linkId of the action from the PlanDefinition that corresponds to this action in the RequestOrchestration resource.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.linkId` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:input</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.input|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.input from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines input data requirements for the action.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.input` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:output</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.output|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.output from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the outputs of the action, if any.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.output` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.location|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.location from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the facility where the action will occur; e.g. home, hospital, specific clinic, etc.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.location` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:definition</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.definition|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.definition[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A reference to an ActivityDefinition that describes the action to be taken in detail, a PlanDefinition that describes a series of actions to be taken, a Questionnaire that should be filled out, a SpecimenDefinition describing a specimen to be collected, or an ObservationDefinition that specifies what observation should be captured.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.definition[x]` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:definitionCanonical</t>
+  </si>
+  <si>
+    <t>definitionCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ActivityDefinition,http://hl7.org/fhir/StructureDefinition/ObservationDefinition,http://hl7.org/fhir/StructureDefinition/PlanDefinition,http://hl7.org/fhir/StructureDefinition/Questionnaire,http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:definitionReference</t>
+  </si>
+  <si>
+    <t>definitionReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ActivityDefinition,http://hl7.org/fhir/StructureDefinition/ObservationDefinition,http://hl7.org/fhir/StructureDefinition/PlanDefinition,http://hl7.org/fhir/StructureDefinition/Questionnaire,http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.extension:dynamicValue</t>
+  </si>
+  <si>
+    <t>dynamicValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.dynamicValue|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RequestOrchestration.action.dynamicValue from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Customizations that should be applied to the statically defined resource. For example, if the dosage of a medication must be computed based on the patient's weight, a customization would be used to specify an expression that calculated the weight, and the path on the resource that would contain the result.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.dynamicValue` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.modifierExtension</t>
   </si>
   <si>
     <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>RequestGroup.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.prefix</t>
+  </si>
+  <si>
+    <t>User-visible prefix for the action (e.g. 1. or A.)</t>
+  </si>
+  <si>
+    <t>A user-visible prefix for the action.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.title</t>
+  </si>
+  <si>
+    <t>User-visible title</t>
+  </si>
+  <si>
+    <t>The title of the action displayed to a user.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.description</t>
+  </si>
+  <si>
+    <t>Short description of the action</t>
+  </si>
+  <si>
+    <t>A short description of the action used to provide a summary to display to the user.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.textEquivalent</t>
+  </si>
+  <si>
+    <t>Static text equivalent of the action, used if the dynamic aspects cannot be interpreted by the receiving system</t>
+  </si>
+  <si>
+    <t>A text equivalent of the action to be performed. This provides a human-interpretable description of the action when the definition is consumed by a system that might not be capable of interpreting it dynamically.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.priority</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the action should be addressed with respect to other actions.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.code</t>
+  </si>
+  <si>
+    <t>Code representing the meaning of the action or sub-actions</t>
+  </si>
+  <si>
+    <t>A code that provides meaning for the action or action group. For example, a section may have a LOINC code for a section of a documentation template.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelatedArtifact
 </t>
   </si>
   <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>Allows a service to provide a unique, business identifier for the request.</t>
-  </si>
-  <si>
-    <t>Allows identification of the request as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>RequestGroup.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical
+    <t>Supporting documentation for the intended performer of the action</t>
+  </si>
+  <si>
+    <t>Didactic or other informational resources associated with the action that can be provided to the CDS recipient. Information resources can include inline text commentary and links to web resources.</t>
+  </si>
+  <si>
+    <t>Request.supportingInfo</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.condition</t>
+  </si>
+  <si>
+    <t>Whether or not the action is applicable</t>
+  </si>
+  <si>
+    <t>An expression that describes applicability criteria, or start/stop conditions for the action.</t>
+  </si>
+  <si>
+    <t>When multiple conditions of the same kind are present, the effects are combined using AND semantics, so the overall condition is true only if all of the conditions are true.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.condition.id</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.condition.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.condition.modifierExtension</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.condition.kind</t>
+  </si>
+  <si>
+    <t>applicability | start | stop</t>
+  </si>
+  <si>
+    <t>The kind of condition.</t>
+  </si>
+  <si>
+    <t>Applicability criteria are used to determine immediate applicability when a plan definition is applied to a given context. Start and stop criteria are carried through application and used to describe enter/exit criteria for an action.</t>
+  </si>
+  <si>
+    <t>The kind of condition for the action.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/action-condition-kind|4.0.1</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.condition.expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression
 </t>
   </si>
   <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>A canonical URL referencing a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>RequestGroup.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>A URL referencing an externally defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>RequestGroup.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
+    <t>Boolean-valued expression</t>
+  </si>
+  <si>
+    <t>An expression that returns true or false, indicating whether or not the condition is satisfied.</t>
+  </si>
+  <si>
+    <t>The expression may be inlined, or may be a reference to a named expression within a logic library referenced by the library element.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.relatedAction</t>
+  </si>
+  <si>
+    <t>Relationship to another action</t>
+  </si>
+  <si>
+    <t>A relationship to another action such as "before" or "30-60 minutes after start of".</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.relatedAction.id</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.relatedAction.extension</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.relatedAction.extension:endRelationship</t>
+  </si>
+  <si>
+    <t>endRelationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.relatedAction.endRelationship|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t>Cross-version extension for RequestOrchestration.action.relatedAction.endRelationship from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The relationship of the end of this action to the related action.</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.relatedAction.endRelationship` has a context of RequestGroup.action.relatedAction based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.relatedAction.modifierExtension</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.relatedAction.actionId</t>
+  </si>
+  <si>
+    <t>What action this is related to</t>
+  </si>
+  <si>
+    <t>The element id of the action this is related to.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.relatedAction.relationship</t>
+  </si>
+  <si>
+    <t>before-start | before | before-end | concurrent-with-start | concurrent | concurrent-with-end | after-start | after | after-end</t>
+  </si>
+  <si>
+    <t>The relationship of this action to the related action.</t>
+  </si>
+  <si>
+    <t>Defines the types of relationships between actions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/action-relationship-type|4.0.1</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.relatedAction.offset[x]</t>
+  </si>
+  <si>
+    <t>Duration
+Range</t>
+  </si>
+  <si>
+    <t>Time offset for the relationship</t>
+  </si>
+  <si>
+    <t>A duration or range of durations to apply to the relationship. For example, 30-60 minutes before.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.timing[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+AgePeriodDurationRangeTiming</t>
+  </si>
+  <si>
+    <t>When the action should take place</t>
+  </si>
+  <si>
+    <t>An optional value describing when the action should be performed.</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal, or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the request and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>RequestGroup.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t>Request(s) replaced by this request</t>
-  </si>
-  <si>
-    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>RequestGroup.groupIdentifier</t>
-  </si>
-  <si>
-    <t>grouperid
-requisition</t>
-  </si>
-  <si>
-    <t>Composite request this is part of</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition, prescription or similar form.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition.  Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "prescription" or "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>RequestGroup.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The current state of the request. For request groups, the status reflects the status of all the requests in the group.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes identifying the lifecycle stage of a request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>RequestGroup.intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category
+    <t>Who should perform the action</t>
+  </si>
+  <si>
+    <t>The participant that should perform or be responsible for this action.</t>
+  </si>
+  <si>
+    <t>Request.performer</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.participant.id</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.participant.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.participant.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.participant|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>RequestGroup.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the request should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this request should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>RequestGroup.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>What's being requested/ordered</t>
-  </si>
-  <si>
-    <t>A code that identifies what the overall request group is.</t>
-  </si>
-  <si>
-    <t>This element can be used to provide a code that captures the meaning of the request group as a whole, as opposed to the code of the action element, which captures the meaning of the individual actions within the request group.</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>RequestGroup.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who the request group is about</t>
-  </si>
-  <si>
-    <t>The subject for which the request group was created.</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>RequestGroup.subject.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>RequestGroup.subject.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>RequestGroup.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `RequestOrchestration.subject` has is mapped to FHIR R4 element `RequestGroup.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>RequestGroup.subject.reference</t>
+    <t>Cross-version extension for RequestOrchestration.action.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `RequestOrchestration.action.participant` is mapped to FHIR R4 element `RequestGroup.action.participant` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.participant.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -783,7 +1280,7 @@
 </t>
   </si>
   <si>
-    <t>RequestGroup.subject.type</t>
+    <t>RequestGroup.action.participant.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -808,7 +1305,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>RequestGroup.subject.identifier</t>
+    <t>RequestGroup.action.participant.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -829,7 +1326,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>RequestGroup.subject.display</t>
+    <t>RequestGroup.action.participant.display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -842,385 +1339,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>RequestGroup.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Created as part of</t>
-  </si>
-  <si>
-    <t>Describes the context of the request group, if any.</t>
-  </si>
-  <si>
-    <t>Request.encounter</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>RequestGroup.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the request group was authored</t>
-  </si>
-  <si>
-    <t>Indicates when the request group was created.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>RequestGroup.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Device or practitioner that authored the request group</t>
-  </si>
-  <si>
-    <t>Provides a reference to the author of the request group.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>RequestGroup.reasonCode</t>
-  </si>
-  <si>
-    <t>Why the request group is needed</t>
-  </si>
-  <si>
-    <t>Describes the reason for the request group in coded or textual form.</t>
-  </si>
-  <si>
-    <t>Request.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>RequestGroup.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Indicates another resource whose existence justifies this request group.</t>
-  </si>
-  <si>
-    <t>Request.reasonReference</t>
-  </si>
-  <si>
-    <t>RequestGroup.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Additional notes about the response</t>
-  </si>
-  <si>
-    <t>Provides a mechanism to communicate additional information about the response.</t>
-  </si>
-  <si>
-    <t>Request.note</t>
-  </si>
-  <si>
-    <t>RequestGroup.action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Proposed actions, if any</t>
-  </si>
-  <si>
-    <t>The actions, if any, produced by the evaluation of the artifact.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rqg-1:Must have resource or action but not both {resource.exists() != action.exists()}</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.id</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.extension:action</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RequestOrchestration.action from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `RequestOrchestration.action` has is mapped to FHIR R4 element `RequestGroup.action`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.prefix</t>
-  </si>
-  <si>
-    <t>User-visible prefix for the action (e.g. 1. or A.)</t>
-  </si>
-  <si>
-    <t>A user-visible prefix for the action.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.title</t>
-  </si>
-  <si>
-    <t>User-visible title</t>
-  </si>
-  <si>
-    <t>The title of the action displayed to a user.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.description</t>
-  </si>
-  <si>
-    <t>Short description of the action</t>
-  </si>
-  <si>
-    <t>A short description of the action used to provide a summary to display to the user.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.textEquivalent</t>
-  </si>
-  <si>
-    <t>Static text equivalent of the action, used if the dynamic aspects cannot be interpreted by the receiving system</t>
-  </si>
-  <si>
-    <t>A text equivalent of the action to be performed. This provides a human-interpretable description of the action when the definition is consumed by a system that might not be capable of interpreting it dynamically.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.priority</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the action should be addressed with respect to other actions.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.code</t>
-  </si>
-  <si>
-    <t>Code representing the meaning of the action or sub-actions</t>
-  </si>
-  <si>
-    <t>A code that provides meaning for the action or action group. For example, a section may have a LOINC code for a section of a documentation template.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RelatedArtifact
-</t>
-  </si>
-  <si>
-    <t>Supporting documentation for the intended performer of the action</t>
-  </si>
-  <si>
-    <t>Didactic or other informational resources associated with the action that can be provided to the CDS recipient. Information resources can include inline text commentary and links to web resources.</t>
-  </si>
-  <si>
-    <t>Request.supportingInfo</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.condition</t>
-  </si>
-  <si>
-    <t>Whether or not the action is applicable</t>
-  </si>
-  <si>
-    <t>An expression that describes applicability criteria, or start/stop conditions for the action.</t>
-  </si>
-  <si>
-    <t>When multiple conditions of the same kind are present, the effects are combined using AND semantics, so the overall condition is true only if all of the conditions are true.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.condition.id</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.condition.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.condition.modifierExtension</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.condition.kind</t>
-  </si>
-  <si>
-    <t>applicability | start | stop</t>
-  </si>
-  <si>
-    <t>The kind of condition.</t>
-  </si>
-  <si>
-    <t>Applicability criteria are used to determine immediate applicability when a plan definition is applied to a given context. Start and stop criteria are carried through application and used to describe enter/exit criteria for an action.</t>
-  </si>
-  <si>
-    <t>The kind of condition for the action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/action-condition-kind|4.0.1</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.condition.expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression
-</t>
-  </si>
-  <si>
-    <t>Boolean-valued expression</t>
-  </si>
-  <si>
-    <t>An expression that returns true or false, indicating whether or not the condition is satisfied.</t>
-  </si>
-  <si>
-    <t>The expression may be inlined, or may be a reference to a named expression within a logic library referenced by the library element.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.relatedAction</t>
-  </si>
-  <si>
-    <t>Relationship to another action</t>
-  </si>
-  <si>
-    <t>A relationship to another action such as "before" or "30-60 minutes after start of".</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.relatedAction.id</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.relatedAction.extension</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.relatedAction.modifierExtension</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.relatedAction.actionId</t>
-  </si>
-  <si>
-    <t>What action this is related to</t>
-  </si>
-  <si>
-    <t>The element id of the action this is related to.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.relatedAction.relationship</t>
-  </si>
-  <si>
-    <t>before-start | before | before-end | concurrent-with-start | concurrent | concurrent-with-end | after-start | after | after-end</t>
-  </si>
-  <si>
-    <t>The relationship of this action to the related action.</t>
-  </si>
-  <si>
-    <t>Defines the types of relationships between actions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/action-relationship-type|4.0.1</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.relatedAction.offset[x]</t>
-  </si>
-  <si>
-    <t>Duration
-Range</t>
-  </si>
-  <si>
-    <t>Time offset for the relationship</t>
-  </si>
-  <si>
-    <t>A duration or range of durations to apply to the relationship. For example, 30-60 minutes before.</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.timing[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-AgePeriodDurationRangeTiming</t>
-  </si>
-  <si>
-    <t>When the action should take place</t>
-  </si>
-  <si>
-    <t>An optional value describing when the action should be performed.</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RequestGroup.action.participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who should perform the action</t>
-  </si>
-  <si>
-    <t>The participant that should perform or be responsible for this action.</t>
-  </si>
-  <si>
-    <t>Request.performer</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
   </si>
   <si>
     <t>RequestGroup.action.type</t>
@@ -1642,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM70"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1651,9 +1769,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.5234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.84375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1661,7 +1779,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2592,7 +2710,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2611,15 +2729,17 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2656,14 +2776,16 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2687,7 +2809,7 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -2695,13 +2817,11 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2714,24 +2834,26 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2779,7 +2901,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2800,19 +2922,19 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2825,25 +2947,23 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2892,7 +3012,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2904,24 +3024,24 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2944,18 +3064,16 @@
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -3003,7 +3121,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3018,10 +3136,10 @@
         <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -3029,10 +3147,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3055,13 +3173,13 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3112,7 +3230,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3127,7 +3245,7 @@
         <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -3138,14 +3256,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3161,19 +3279,21 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3221,7 +3341,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3236,7 +3356,7 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3247,14 +3367,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3273,17 +3393,19 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3332,7 +3454,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3347,7 +3469,7 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3358,21 +3480,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3381,22 +3503,22 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3445,13 +3567,13 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
@@ -3460,7 +3582,7 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3471,18 +3593,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3491,26 +3613,22 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3534,13 +3652,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3558,10 +3676,10 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3573,10 +3691,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3591,7 +3709,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3613,13 +3731,15 @@
         <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3643,13 +3763,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3682,10 +3802,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3693,18 +3813,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3713,7 +3833,7 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
@@ -3728,13 +3848,13 @@
         <v>199</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="P19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3754,7 +3874,7 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>201</v>
@@ -3778,10 +3898,10 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3830,22 +3950,22 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3865,13 +3985,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3904,10 +4024,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3915,10 +4035,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3938,20 +4058,18 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4000,7 +4118,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4015,10 +4133,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4026,10 +4144,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4052,13 +4170,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4109,7 +4227,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4124,10 +4242,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4135,10 +4253,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4161,13 +4279,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4218,7 +4336,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4230,24 +4348,24 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4258,7 +4376,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4270,13 +4388,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4315,37 +4433,37 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4353,14 +4471,12 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C25" t="s" s="2">
         <v>236</v>
       </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4369,7 +4485,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4381,7 +4497,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>237</v>
@@ -4389,9 +4505,7 @@
       <c r="M25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4440,7 +4554,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4452,13 +4566,13 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4466,10 +4580,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4480,7 +4594,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4489,20 +4603,18 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>243</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4551,36 +4663,36 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4591,7 +4703,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4600,10 +4712,10 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>247</v>
@@ -4611,9 +4723,7 @@
       <c r="M27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>249</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4638,13 +4748,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4662,13 +4772,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4677,21 +4787,21 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4702,7 +4812,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4711,20 +4821,18 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4773,19 +4881,19 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -4794,15 +4902,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4822,20 +4930,18 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4884,7 +4990,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4896,7 +5002,7 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4905,15 +5011,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>129</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4924,7 +5030,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4936,13 +5042,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4981,37 +5087,35 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5019,12 +5123,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5045,15 +5151,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5102,25 +5210,25 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5128,12 +5236,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5142,7 +5252,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5154,15 +5264,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5211,25 +5323,25 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5237,12 +5349,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5263,15 +5377,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5320,7 +5436,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5329,16 +5445,16 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5346,12 +5462,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5360,7 +5478,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5372,15 +5490,17 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5429,7 +5549,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5438,16 +5558,16 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5458,9 +5578,11 @@
         <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5469,7 +5591,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5481,15 +5603,17 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5538,7 +5662,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5547,13 +5671,13 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5564,12 +5688,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5578,7 +5704,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5590,15 +5716,17 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5647,7 +5775,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5656,10 +5784,10 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5673,12 +5801,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="B37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5699,15 +5829,17 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5756,19 +5888,19 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5777,17 +5909,19 @@
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5808,15 +5942,17 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5853,17 +5989,19 @@
         <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5872,7 +6010,7 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>137</v>
@@ -5889,16 +6027,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5911,24 +6047,26 @@
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5976,7 +6114,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5985,7 +6123,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>137</v>
@@ -5997,51 +6135,47 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6089,19 +6223,19 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6110,15 +6244,15 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6141,13 +6275,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6198,7 +6332,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6224,10 +6358,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6247,16 +6381,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6307,7 +6441,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6333,10 +6467,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6359,13 +6493,13 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6416,7 +6550,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6442,10 +6576,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6465,16 +6599,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6501,13 +6635,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6525,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6540,7 +6674,7 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6551,10 +6685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6565,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6577,13 +6711,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6610,13 +6744,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6634,13 +6768,13 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
@@ -6649,7 +6783,7 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6660,10 +6794,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6686,13 +6820,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6743,7 +6877,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6758,7 +6892,7 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6769,10 +6903,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6795,15 +6929,17 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6852,7 +6988,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6867,7 +7003,7 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6878,10 +7014,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6892,7 +7028,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6904,17 +7040,15 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6963,19 +7097,19 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>259</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -6984,26 +7118,26 @@
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7015,15 +7149,17 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7072,19 +7208,19 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -7093,19 +7229,19 @@
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7118,24 +7254,26 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7183,7 +7321,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7204,7 +7342,7 @@
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>231</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -7216,39 +7354,37 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7272,13 +7408,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7296,19 +7432,19 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -7317,15 +7453,15 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7333,7 +7469,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>86</v>
@@ -7348,16 +7484,16 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7383,34 +7519,34 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>86</v>
@@ -7433,10 +7569,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7447,7 +7583,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7459,17 +7595,15 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>353</v>
+        <v>251</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7518,13 +7652,13 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
@@ -7544,10 +7678,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7558,7 +7692,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7570,13 +7704,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>358</v>
+        <v>257</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>359</v>
+        <v>258</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7627,19 +7761,19 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -7648,7 +7782,7 @@
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55">
@@ -7667,7 +7801,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7679,13 +7813,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7724,31 +7858,29 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -7757,7 +7889,7 @@
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
@@ -7765,18 +7897,20 @@
         <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="D56" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7788,16 +7922,16 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>148</v>
+        <v>366</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7847,7 +7981,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7856,7 +7990,7 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>137</v>
@@ -7868,15 +8002,15 @@
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7899,7 +8033,7 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>312</v>
@@ -7908,10 +8042,10 @@
         <v>313</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7986,10 +8120,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8015,10 +8149,10 @@
         <v>88</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8069,7 +8203,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -8095,10 +8229,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8124,10 +8258,10 @@
         <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8154,13 +8288,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8178,7 +8312,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
@@ -8204,10 +8338,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8230,13 +8364,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8287,7 +8421,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8313,10 +8447,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8339,13 +8473,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8396,7 +8530,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8411,7 +8545,7 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8422,10 +8556,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8448,13 +8582,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8505,7 +8639,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8520,10 +8654,10 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8531,10 +8665,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8557,13 +8691,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>387</v>
+        <v>257</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8590,13 +8724,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -8614,7 +8748,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>386</v>
+        <v>259</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8626,7 +8760,7 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -8635,15 +8769,15 @@
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8654,7 +8788,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8666,13 +8800,13 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>262</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>393</v>
+        <v>263</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8699,43 +8833,43 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>391</v>
+        <v>266</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
@@ -8749,12 +8883,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>76</v>
       </c>
@@ -8763,7 +8899,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8775,15 +8911,17 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>106</v>
+        <v>396</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>397</v>
       </c>
       <c r="M65" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8808,13 +8946,13 @@
         <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>76</v>
@@ -8832,19 +8970,19 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>396</v>
+        <v>266</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
@@ -8858,10 +8996,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8881,18 +9019,20 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -8917,13 +9057,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -8941,7 +9081,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -8950,7 +9090,7 @@
         <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>98</v>
@@ -8962,15 +9102,15 @@
         <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8990,18 +9130,20 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9026,13 +9168,13 @@
         <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>76</v>
@@ -9050,7 +9192,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9071,15 +9213,15 @@
         <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9099,18 +9241,20 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9135,13 +9279,13 @@
         <v>76</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>76</v>
@@ -9159,7 +9303,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9180,15 +9324,15 @@
         <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9208,19 +9352,19 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9270,7 +9414,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9279,7 +9423,7 @@
         <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>98</v>
@@ -9291,15 +9435,15 @@
         <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9310,7 +9454,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9322,13 +9466,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9355,13 +9499,13 @@
         <v>76</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>76</v>
@@ -9379,16 +9523,16 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>98</v>
@@ -9400,6 +9544,771 @@
         <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>76</v>
       </c>
     </row>
